--- a/src/com/leetcode/tjl/class004/笔记.xlsx
+++ b/src/com/leetcode/tjl/class004/笔记.xlsx
@@ -14,6 +14,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0">Sheet1!$F$6:$M$7</definedName>
     <definedName name="ExternalData_2" localSheetId="0">Sheet1!$R$8:$Z$9</definedName>
+    <definedName name="ExternalData_3" localSheetId="0">Sheet1!$E$31:$N$32</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -35,6 +36,13 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="tmp2" type="6" background="1" refreshedVersion="2" saveData="1">
+    <textPr sourceFile="C:\Users\dpb129\Desktop\tmp" space="1" consecutive="1">
+      <textFields>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
@@ -42,9 +50,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -56,7 +64,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -70,9 +182,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -86,43 +206,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -130,81 +213,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -215,61 +223,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,121 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +417,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,17 +447,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -492,6 +485,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -511,152 +519,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -664,6 +672,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,11 +739,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1022,15 +1037,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B6:Z29"/>
+  <dimension ref="B6:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AA39" sqref="AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="6" max="13" width="3.375" customWidth="1"/>
+    <col min="5" max="5" width="2.375" customWidth="1"/>
+    <col min="6" max="14" width="3.375" customWidth="1"/>
     <col min="19" max="26" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1265,7 +1281,6 @@
       <c r="O16" s="1">
         <v>94</v>
       </c>
-      <c r="P16"/>
       <c r="S16">
         <v>63</v>
       </c>
@@ -1274,14 +1289,13 @@
       </c>
     </row>
     <row r="17" spans="3:20">
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
       <c r="N17">
         <v>12</v>
       </c>
       <c r="O17" s="1">
         <v>95</v>
       </c>
-      <c r="P17"/>
       <c r="S17">
         <v>88</v>
       </c>
@@ -1290,14 +1304,13 @@
       </c>
     </row>
     <row r="18" spans="3:20">
-      <c r="C18" s="2"/>
+      <c r="C18" s="1"/>
       <c r="N18">
         <v>13</v>
       </c>
       <c r="O18" s="1">
         <v>97</v>
       </c>
-      <c r="P18"/>
       <c r="S18">
         <v>94</v>
       </c>
@@ -1312,7 +1325,6 @@
       <c r="O19" s="1">
         <v>98</v>
       </c>
-      <c r="P19"/>
       <c r="T19">
         <v>86</v>
       </c>
@@ -1324,60 +1336,353 @@
       <c r="O20" s="1">
         <v>99</v>
       </c>
-      <c r="P20"/>
       <c r="T20">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="15:20">
-      <c r="O21" s="2"/>
-      <c r="P21"/>
+      <c r="O21" s="1"/>
       <c r="T21">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="15:20">
-      <c r="O22" s="2"/>
+      <c r="O22" s="1"/>
       <c r="T22">
         <v>90</v>
       </c>
     </row>
     <row r="23" spans="15:20">
-      <c r="O23" s="2"/>
+      <c r="O23" s="1"/>
       <c r="T23">
         <v>94</v>
       </c>
     </row>
     <row r="24" spans="15:20">
-      <c r="O24" s="2"/>
+      <c r="O24" s="1"/>
       <c r="T24">
         <v>63</v>
       </c>
     </row>
     <row r="25" spans="15:20">
-      <c r="O25" s="2"/>
+      <c r="O25" s="1"/>
       <c r="T25">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="15:20">
-      <c r="O26" s="2"/>
+      <c r="O26" s="1"/>
       <c r="T26">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="15:15">
-      <c r="O27" s="2"/>
+      <c r="O27" s="1"/>
     </row>
     <row r="28" spans="15:15">
-      <c r="O28" s="2"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="15:15">
-      <c r="O29" s="2"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>37</v>
+      </c>
+      <c r="G31">
+        <v>43</v>
+      </c>
+      <c r="H31">
+        <v>46</v>
+      </c>
+      <c r="I31">
+        <v>51</v>
+      </c>
+      <c r="J31">
+        <v>63</v>
+      </c>
+      <c r="K31">
+        <v>77</v>
+      </c>
+      <c r="L31">
+        <v>84</v>
+      </c>
+      <c r="M31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="5:26">
+      <c r="E32">
+        <v>9</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>27</v>
+      </c>
+      <c r="H32">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>39</v>
+      </c>
+      <c r="J32">
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <v>50</v>
+      </c>
+      <c r="L32">
+        <v>70</v>
+      </c>
+      <c r="M32">
+        <v>79</v>
+      </c>
+      <c r="N32">
+        <v>80</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>9</v>
+      </c>
+      <c r="Y32">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="17:26">
+      <c r="Q33">
+        <v>37</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+      <c r="Y33">
+        <v>2</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="17:26">
+      <c r="Q34">
+        <v>43</v>
+      </c>
+      <c r="R34">
+        <v>27</v>
+      </c>
+      <c r="Y34">
+        <v>3</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="17:26">
+      <c r="Q35">
+        <v>46</v>
+      </c>
+      <c r="R35">
+        <v>38</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="17:26">
+      <c r="Q36">
+        <v>51</v>
+      </c>
+      <c r="R36">
+        <v>39</v>
+      </c>
+      <c r="Y36">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="17:26">
+      <c r="Q37">
+        <v>63</v>
+      </c>
+      <c r="R37">
+        <v>40</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="17:26">
+      <c r="Q38">
+        <v>77</v>
+      </c>
+      <c r="R38">
+        <v>50</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="17:26">
+      <c r="Q39">
+        <v>84</v>
+      </c>
+      <c r="R39">
+        <v>70</v>
+      </c>
+      <c r="Y39">
+        <v>8</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="17:26">
+      <c r="Q40">
+        <v>92</v>
+      </c>
+      <c r="R40">
+        <v>79</v>
+      </c>
+      <c r="Y40">
+        <v>9</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="18:26">
+      <c r="R41">
+        <v>80</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>10</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="18:26">
+      <c r="R42">
+        <v>2</v>
+      </c>
+      <c r="Y42">
+        <v>11</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="18:26">
+      <c r="R43">
+        <v>37</v>
+      </c>
+      <c r="Y43">
+        <v>12</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="18:26">
+      <c r="R44">
+        <v>43</v>
+      </c>
+      <c r="Y44">
+        <v>13</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="18:26">
+      <c r="R45">
+        <v>46</v>
+      </c>
+      <c r="Y45">
+        <v>14</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="18:26">
+      <c r="R46">
+        <v>51</v>
+      </c>
+      <c r="Y46">
+        <v>15</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="18:26">
+      <c r="R47">
+        <v>63</v>
+      </c>
+      <c r="Y47">
+        <v>16</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="18:26">
+      <c r="R48">
+        <v>77</v>
+      </c>
+      <c r="Y48">
+        <v>17</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="18:26">
+      <c r="R49">
+        <v>84</v>
+      </c>
+      <c r="Y49">
+        <v>18</v>
+      </c>
+      <c r="Z49">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="18:26">
+      <c r="R50">
+        <v>92</v>
+      </c>
+      <c r="Y50">
+        <v>19</v>
+      </c>
+      <c r="Z50">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="C6:C29">
-    <sortCondition ref="C6:C29"/>
+  <sortState ref="Z32:Z50">
+    <sortCondition ref="Z32:Z50"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
